--- a/Archive/TC7/TC7_Results_R.xlsx
+++ b/Archive/TC7/TC7_Results_R.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1176752\Documents\VSCode\Projects\LPSD\LPSD\Test Case - 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nventco-my.sharepoint.com/personal/e1176752_nventco_com/Documents/Documents/VSCode/Projects/LPSD/LPSD/Archive/TC7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFD5509-AD13-4B0F-93A9-692DAF9C92FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{9AFD5509-AD13-4B0F-93A9-692DAF9C92FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{694B77FB-0332-4F4D-AC73-1B8695F1C5D3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reductive" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1161,24 +1161,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,6 +1172,28 @@
     </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1236,7 +1240,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1254,106 +1258,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1847,46 +1751,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="13" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="1" t="s">
         <v>73</v>
       </c>
@@ -1905,16 +1809,16 @@
       <c r="G2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="15" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3490,11 +3394,11 @@
       <c r="L35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M35" s="15" t="s">
+      <c r="M35" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
       <c r="Q35" t="b">
         <v>1</v>
       </c>
@@ -3539,9 +3443,9 @@
       <c r="L36" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
       <c r="Q36" t="b">
         <v>1</v>
       </c>
@@ -3586,9 +3490,9 @@
       <c r="L37" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
       <c r="Q37" t="b">
         <v>1</v>
       </c>
@@ -3633,9 +3537,9 @@
       <c r="L38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
       <c r="Q38" t="b">
         <v>1</v>
       </c>
@@ -3680,9 +3584,9 @@
       <c r="L39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
       <c r="Q39" t="b">
         <v>1</v>
       </c>
@@ -3727,9 +3631,9 @@
       <c r="L40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
       <c r="Q40" t="b">
         <v>1</v>
       </c>
@@ -3774,9 +3678,9 @@
       <c r="L41" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
       <c r="Q41" t="b">
         <v>1</v>
       </c>
@@ -3821,9 +3725,9 @@
       <c r="L42" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
       <c r="Q42" t="b">
         <v>1</v>
       </c>
@@ -3868,9 +3772,9 @@
       <c r="L43" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
       <c r="Q43" t="b">
         <v>1</v>
       </c>
@@ -3915,9 +3819,9 @@
       <c r="L44" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
       <c r="Q44" t="b">
         <v>1</v>
       </c>
@@ -3962,9 +3866,9 @@
       <c r="L45" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
       <c r="Q45" t="b">
         <v>1</v>
       </c>
@@ -4009,9 +3913,9 @@
       <c r="L46" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
       <c r="Q46" t="b">
         <v>1</v>
       </c>
@@ -4790,6 +4694,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="M35:O46"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="I1:I2"/>
@@ -4797,93 +4706,48 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="N1:N2"/>
   </mergeCells>
-  <conditionalFormatting sqref="L65 M3:M34 S35:S64">
-    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
+  <conditionalFormatting sqref="L3:L65">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L65">
-    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
+  <conditionalFormatting sqref="M3:M34 S35:S64">
+    <cfRule type="cellIs" dxfId="17" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q29">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+  <conditionalFormatting sqref="Q11:Q14">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q11">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+  <conditionalFormatting sqref="Q16:Q17">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:Q14">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q16">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q26">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
+  <conditionalFormatting sqref="Q22:Q23">
     <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -4891,11 +4755,27 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q35:Q46">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+  <conditionalFormatting sqref="Q26">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q29">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q35:Q46">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4908,8 +4788,8 @@
   <dimension ref="A1:AL70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q44" sqref="Q44"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4929,97 +4809,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="15" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15" t="s">
+      <c r="M1" s="17"/>
+      <c r="N1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15" t="s">
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15" t="s">
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15" t="s">
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="18" t="s">
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AD1" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AE1" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AF1" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AG1" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AH1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AI1" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="7" t="s">
         <v>73</v>
       </c>
@@ -5038,38 +4918,38 @@
       <c r="G2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
       <c r="B3">
@@ -5093,13 +4973,13 @@
       <c r="H3" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="14">
         <v>6.0199476271568706</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="13">
         <v>6.0347239054390647</v>
       </c>
       <c r="L3" s="12">
@@ -5195,13 +5075,13 @@
       <c r="H4" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="14">
         <v>6.0279006269360114</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="13">
         <v>6.0574639434190463</v>
       </c>
       <c r="L4" s="12">
@@ -5297,13 +5177,13 @@
       <c r="H5" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="14">
         <v>3.5740936448590732</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="13">
         <v>3.5916617075689481</v>
       </c>
       <c r="L5" s="12">
@@ -5399,13 +5279,13 @@
       <c r="H6" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="14">
         <v>3.573674303484033</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="13">
         <v>3.591241210082281</v>
       </c>
       <c r="L6" s="12">
@@ -5477,7 +5357,7 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="23">
         <v>5</v>
       </c>
       <c r="B7">
@@ -5501,13 +5381,13 @@
       <c r="H7" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="14">
         <v>6.7197336171756916</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="13">
         <v>6.7505673428578916</v>
       </c>
       <c r="L7" s="12">
@@ -5607,13 +5487,13 @@
       <c r="H8" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="14">
         <v>6.7209048573520596</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="13">
         <v>6.7517411952504034</v>
       </c>
       <c r="L8" s="12">
@@ -5709,13 +5589,13 @@
       <c r="H9" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="14">
         <v>3.8126523152973242</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="13">
         <v>3.830971561488953</v>
       </c>
       <c r="L9" s="12">
@@ -5811,13 +5691,13 @@
       <c r="H10" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="14">
         <v>3.8125301393591968</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="13">
         <v>3.8308489630519751</v>
       </c>
       <c r="L10" s="12">
@@ -5913,13 +5793,13 @@
       <c r="H11" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="14">
         <v>3.7348636664836961</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="13">
         <v>3.7529206020014718</v>
       </c>
       <c r="L11" s="12">
@@ -6015,13 +5895,13 @@
       <c r="H12" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="14">
         <v>3.66073741120662</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="13">
         <v>3.678558666126416</v>
       </c>
       <c r="L12" s="12">
@@ -6117,13 +5997,13 @@
       <c r="H13" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="14">
         <v>4.8679187972424858</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="13">
         <v>3.4944078355693282</v>
       </c>
       <c r="L13" s="12">
@@ -6219,13 +6099,13 @@
       <c r="H14" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="14">
         <v>4.7356353827009077</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="13">
         <v>3.399739191710359</v>
       </c>
       <c r="L14" s="12">
@@ -6319,13 +6199,13 @@
         <v>12.112</v>
       </c>
       <c r="H15"/>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="14">
         <v>5.8314242292919998</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="15">
         <v>5.9502994694984253</v>
       </c>
       <c r="L15" s="6">
@@ -6396,7 +6276,7 @@
       <c r="AI15" s="1"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="23">
         <v>14</v>
       </c>
       <c r="B16">
@@ -6420,13 +6300,13 @@
       <c r="H16" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="14">
         <v>5.8339992416512683</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="15">
         <v>5.9528989736324274</v>
       </c>
       <c r="L16" s="6">
@@ -6496,7 +6376,7 @@
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="23">
         <v>15</v>
       </c>
       <c r="B17">
@@ -6520,13 +6400,13 @@
       <c r="H17" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="14">
         <v>8.387378797060526</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="15">
         <v>8.5595677335959515</v>
       </c>
       <c r="L17" s="6">
@@ -6626,13 +6506,13 @@
       <c r="H18" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="14">
         <v>6.3422625816849809</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="15">
         <v>6.4665024781756077</v>
       </c>
       <c r="L18" s="6">
@@ -6726,13 +6606,13 @@
       <c r="H19" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="14">
         <v>3.2668457555246611</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="15">
         <v>3.337446580728717</v>
       </c>
       <c r="L19" s="6">
@@ -6802,13 +6682,13 @@
       <c r="H20" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="14">
         <v>3.2670248383156291</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="15">
         <v>3.337628373418847</v>
       </c>
       <c r="L20" s="6">
@@ -6902,13 +6782,13 @@
       <c r="H21" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="14">
         <v>3.2670606527280071</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="15">
         <v>3.3376647298191262</v>
       </c>
       <c r="L21" s="6">
@@ -6978,13 +6858,13 @@
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="14">
         <v>3.316389992860739</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="15">
         <v>3.387752926851924</v>
       </c>
       <c r="L22" s="6">
@@ -7036,13 +6916,13 @@
       <c r="H23" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="14">
         <v>3.3951809327818401</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="15">
         <v>3.467802487669791</v>
       </c>
       <c r="L23" s="6">
@@ -7136,13 +7016,13 @@
       <c r="H24" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="14">
         <v>5.3618660586769504</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="15">
         <v>5.4795068896920736</v>
       </c>
       <c r="L24" s="6">
@@ -7242,13 +7122,13 @@
       <c r="H25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="14">
         <v>5.4414242171098417</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="15">
         <v>5.559825910972414</v>
       </c>
       <c r="L25" s="6">
@@ -7361,13 +7241,13 @@
       <c r="H26" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="14">
         <v>3.3943754234233969</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="15">
         <v>3.4669838470385002</v>
       </c>
       <c r="L26" s="6">
@@ -7474,13 +7354,13 @@
       <c r="H27" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="14">
         <v>3.3138072697967829</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="15">
         <v>3.3851298821264679</v>
       </c>
       <c r="L27" s="6">
@@ -7587,13 +7467,13 @@
       <c r="H28" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="14">
         <v>5.3533701440450248</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="15">
         <v>5.4709335709422646</v>
       </c>
       <c r="L28" s="6">
@@ -7706,13 +7586,13 @@
       <c r="H29" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="14">
         <v>5.4288030651752228</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="15">
         <v>5.5470798008186897</v>
       </c>
       <c r="L29" s="6">
@@ -7825,13 +7705,13 @@
       <c r="H30" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="14">
         <v>5.4864987106900189</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="15">
         <v>5.6053594583185014</v>
       </c>
       <c r="L30" s="6">
@@ -7944,13 +7824,13 @@
       <c r="H31" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="14">
         <v>5.4869082719304272</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="15">
         <v>5.60577328166766</v>
       </c>
       <c r="L31" s="6">
@@ -8063,13 +7943,13 @@
       <c r="H32" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="14">
         <v>12.71618029302155</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="15">
         <v>12.70496006206699</v>
       </c>
       <c r="L32" s="6">
@@ -8176,13 +8056,13 @@
       <c r="H33" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="14">
         <v>7.0727775106927471</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="15">
         <v>7.0662027070380962</v>
       </c>
       <c r="L33" s="6">
@@ -8289,13 +8169,13 @@
       <c r="H34" t="s">
         <v>30</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I34" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J34" s="14">
         <v>7.0727775106927471</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="15">
         <v>7.0662027070380962</v>
       </c>
       <c r="L34" s="6">
@@ -8378,7 +8258,7 @@
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="23">
         <v>33</v>
       </c>
       <c r="B35">
@@ -8402,13 +8282,13 @@
       <c r="H35" t="s">
         <v>31</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="14">
         <v>11.20193836500685</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="15">
         <v>11.191467769693441</v>
       </c>
       <c r="L35" s="6">
@@ -8508,13 +8388,13 @@
       <c r="H36" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="I36" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="14">
         <v>11.20193836500685</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="15">
         <v>11.191467769693441</v>
       </c>
       <c r="L36" s="6">
@@ -8614,13 +8494,13 @@
       <c r="H37" t="s">
         <v>34</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I37" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="14">
         <v>11.20193836500685</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="15">
         <v>11.191467769693441</v>
       </c>
       <c r="L37" s="6">
@@ -8720,13 +8600,13 @@
       <c r="H38" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="J38" s="20">
+      <c r="J38" s="14">
         <v>7.0727211472233993</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="15">
         <v>7.0661463909365834</v>
       </c>
       <c r="L38" s="6">
@@ -8833,13 +8713,13 @@
       <c r="H39" t="s">
         <v>36</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="I39" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="J39" s="20">
+      <c r="J39" s="14">
         <v>12.7347355332025</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="15">
         <v>12.72350247126888</v>
       </c>
       <c r="L39" s="6">
@@ -8946,13 +8826,13 @@
       <c r="H40" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I40" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="J40" s="20">
+      <c r="J40" s="14">
         <v>7.1954941765846412</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="15">
         <v>7.1888156410688682</v>
       </c>
       <c r="L40" s="6">
@@ -9059,13 +8939,13 @@
       <c r="H41" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I41" s="21" t="s">
+      <c r="I41" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="J41" s="20">
+      <c r="J41" s="14">
         <v>7.2964396434455541</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K41" s="15">
         <v>7.2896749511132084</v>
       </c>
       <c r="L41" s="6">
@@ -9137,7 +9017,7 @@
       <c r="AJ41" s="1"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="23">
         <v>40</v>
       </c>
       <c r="B42">
@@ -9161,13 +9041,13 @@
       <c r="H42" t="s">
         <v>39</v>
       </c>
-      <c r="I42" s="21" t="s">
+      <c r="I42" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="J42" s="20">
+      <c r="J42" s="14">
         <v>7.199430881855327</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="15">
         <v>7.1927489997185994</v>
       </c>
       <c r="L42" s="6">
@@ -9261,13 +9141,13 @@
       <c r="H43" t="s">
         <v>40</v>
       </c>
-      <c r="I43" s="21" t="s">
+      <c r="I43" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J43" s="16">
         <v>7.2981366333401674</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="15">
         <v>7.2913704867508748</v>
       </c>
       <c r="L43" s="6">
@@ -9374,13 +9254,13 @@
       <c r="H44" t="s">
         <v>41</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I44" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="J44" s="22">
+      <c r="J44" s="16">
         <v>6.3423580204925631</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K44" s="15">
         <v>6.4826803485590112</v>
       </c>
       <c r="L44" s="6">
@@ -9487,13 +9367,13 @@
       <c r="H45" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="21" t="s">
+      <c r="I45" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="J45" s="20">
+      <c r="J45" s="14">
         <v>3.335325391857265</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="15">
         <v>3.417516950542649</v>
       </c>
       <c r="L45" s="6">
@@ -9600,13 +9480,13 @@
       <c r="H46" t="s">
         <v>43</v>
       </c>
-      <c r="I46" s="21" t="s">
+      <c r="I46" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J46" s="14">
         <v>3.335266529966328</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="15">
         <v>3.4174569044796992</v>
       </c>
       <c r="L46" s="6">
@@ -9689,7 +9569,7 @@
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="23">
         <v>45</v>
       </c>
       <c r="B47">
@@ -9713,13 +9593,13 @@
       <c r="H47" t="s">
         <v>44</v>
       </c>
-      <c r="I47" s="21" t="s">
+      <c r="I47" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="J47" s="20">
+      <c r="J47" s="14">
         <v>3.3352370984623718</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47" s="15">
         <v>3.417426880888033</v>
       </c>
       <c r="L47" s="6">
@@ -9813,13 +9693,13 @@
       <c r="H48" t="s">
         <v>45</v>
       </c>
-      <c r="I48" s="21" t="s">
+      <c r="I48" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="14">
         <v>3.335178234337389</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K48" s="15">
         <v>3.4173668325842228</v>
       </c>
       <c r="L48" s="6">
@@ -9913,13 +9793,13 @@
       <c r="H49" t="s">
         <v>46</v>
       </c>
-      <c r="I49" s="21" t="s">
+      <c r="I49" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="14">
         <v>3.33511936872284</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="15">
         <v>3.4173067827863091</v>
       </c>
       <c r="L49" s="6">
@@ -10013,13 +9893,13 @@
       <c r="H50" t="s">
         <v>47</v>
       </c>
-      <c r="I50" s="21" t="s">
+      <c r="I50" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="J50" s="20">
+      <c r="J50" s="14">
         <v>3.335060501618567</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K50" s="15">
         <v>3.4172467314941311</v>
       </c>
       <c r="L50" s="6">
@@ -10113,13 +9993,13 @@
       <c r="H51" t="s">
         <v>48</v>
       </c>
-      <c r="I51" s="21" t="s">
+      <c r="I51" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="J51" s="20">
+      <c r="J51" s="14">
         <v>6.605379940342929</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K51" s="15">
         <v>5.3803166845630486</v>
       </c>
       <c r="L51" s="6">
@@ -10219,13 +10099,13 @@
       <c r="H52" t="s">
         <v>49</v>
       </c>
-      <c r="I52" s="21" t="s">
+      <c r="I52" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="14">
         <v>6.3441313437266489</v>
       </c>
-      <c r="K52" s="21">
+      <c r="K52" s="15">
         <v>6.4844789299101429</v>
       </c>
       <c r="L52" s="6">
@@ -10319,13 +10199,13 @@
       <c r="H53" t="s">
         <v>50</v>
       </c>
-      <c r="I53" s="21" t="s">
+      <c r="I53" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="J53" s="20">
+      <c r="J53" s="14">
         <v>3.3747253370365229</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K53" s="15">
         <v>3.457715109483301</v>
       </c>
       <c r="L53" s="6">
@@ -10419,13 +10299,13 @@
       <c r="H54" t="s">
         <v>51</v>
       </c>
-      <c r="I54" s="21" t="s">
+      <c r="I54" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="J54" s="20">
+      <c r="J54" s="14">
         <v>3.4389489072320631</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K54" s="15">
         <v>3.523262296807538</v>
       </c>
       <c r="L54" s="6">
@@ -10498,7 +10378,7 @@
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="23">
         <v>53</v>
       </c>
       <c r="B55">
@@ -10522,13 +10402,13 @@
       <c r="H55" t="s">
         <v>52</v>
       </c>
-      <c r="I55" s="21" t="s">
+      <c r="I55" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="J55" s="22">
+      <c r="J55" s="16">
         <v>3.38399901979014</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="15">
         <v>3.4671782434185499</v>
       </c>
       <c r="L55" s="6">
@@ -10622,13 +10502,13 @@
       <c r="H56" t="s">
         <v>53</v>
       </c>
-      <c r="I56" s="21" t="s">
+      <c r="I56" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J56" s="14">
         <v>3.460911977372398</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K56" s="15">
         <v>3.5456839794453998</v>
       </c>
       <c r="L56" s="6">
@@ -10725,13 +10605,13 @@
       <c r="H57" t="s">
         <v>54</v>
       </c>
-      <c r="I57" s="21" t="s">
+      <c r="I57" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="J57" s="20">
+      <c r="J57" s="14">
         <v>13.58547032553132</v>
       </c>
-      <c r="K57" s="21">
+      <c r="K57" s="15">
         <v>13.57362985504156</v>
       </c>
       <c r="L57" s="6">
@@ -10792,13 +10672,13 @@
       <c r="H58" t="s">
         <v>55</v>
       </c>
-      <c r="I58" s="21" t="s">
+      <c r="I58" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="J58" s="20">
+      <c r="J58" s="14">
         <v>11.458079099939869</v>
       </c>
-      <c r="K58" s="21">
+      <c r="K58" s="15">
         <v>11.447430500411469</v>
       </c>
       <c r="L58" s="6">
@@ -10865,13 +10745,13 @@
       <c r="H59" t="s">
         <v>56</v>
       </c>
-      <c r="I59" s="21" t="s">
+      <c r="I59" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="J59" s="20">
+      <c r="J59" s="14">
         <v>11.45803988093849</v>
       </c>
-      <c r="K59" s="21">
+      <c r="K59" s="15">
         <v>11.44739130992336</v>
       </c>
       <c r="L59" s="6">
@@ -10938,13 +10818,13 @@
       <c r="H60" t="s">
         <v>57</v>
       </c>
-      <c r="I60" s="21" t="s">
+      <c r="I60" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="J60" s="20">
+      <c r="J60" s="14">
         <v>11.458000661153299</v>
       </c>
-      <c r="K60" s="21">
+      <c r="K60" s="15">
         <v>11.447352118651621</v>
       </c>
       <c r="L60" s="6">
@@ -11011,13 +10891,13 @@
       <c r="H61" t="s">
         <v>58</v>
       </c>
-      <c r="I61" s="21" t="s">
+      <c r="I61" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="J61" s="20">
+      <c r="J61" s="14">
         <v>11.45792221923101</v>
       </c>
-      <c r="K61" s="21">
+      <c r="K61" s="15">
         <v>11.44727373375677</v>
       </c>
       <c r="L61" s="6">
@@ -11084,13 +10964,13 @@
       <c r="H62" t="s">
         <v>59</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I62" s="15">
         <v>10.862621069999999</v>
       </c>
-      <c r="J62" s="20">
+      <c r="J62" s="14">
         <v>2.6623202224433902</v>
       </c>
-      <c r="K62" s="21">
+      <c r="K62" s="15">
         <v>11.447391309923299</v>
       </c>
       <c r="L62" s="6">
@@ -11157,13 +11037,13 @@
       <c r="H63" t="s">
         <v>60</v>
       </c>
-      <c r="I63" s="21">
+      <c r="I63" s="15">
         <v>10.862621069999999</v>
       </c>
-      <c r="J63" s="20">
+      <c r="J63" s="14">
         <v>2.6623045547675601</v>
       </c>
-      <c r="K63" s="21">
+      <c r="K63" s="15">
         <v>11.447352118651599</v>
       </c>
       <c r="L63" s="6">
@@ -11230,13 +11110,13 @@
       <c r="H64" t="s">
         <v>61</v>
       </c>
-      <c r="I64" s="21">
+      <c r="I64" s="15">
         <v>10.862621069999999</v>
       </c>
-      <c r="J64" s="20">
+      <c r="J64" s="14">
         <v>2.6622732175108901</v>
       </c>
-      <c r="K64" s="21">
+      <c r="K64" s="15">
         <v>11.447273733756701</v>
       </c>
       <c r="L64" s="6">
@@ -11278,42 +11158,54 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="65" spans="33:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
       <c r="AG65" s="1">
         <v>1.65</v>
       </c>
       <c r="AH65"/>
       <c r="AJ65" s="1"/>
     </row>
-    <row r="66" spans="33:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
       <c r="AG66" s="1">
         <v>1.65</v>
       </c>
       <c r="AH66"/>
       <c r="AJ66" s="1"/>
     </row>
-    <row r="67" spans="33:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
       <c r="AG67" s="1">
         <v>1.65</v>
       </c>
       <c r="AH67"/>
       <c r="AJ67" s="1"/>
     </row>
-    <row r="68" spans="33:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A68" s="24">
+        <v>66</v>
+      </c>
       <c r="AG68" s="1">
         <v>1.65</v>
       </c>
       <c r="AH68"/>
       <c r="AJ68" s="1"/>
     </row>
-    <row r="69" spans="33:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AG69" s="1">
         <v>0.54</v>
       </c>
       <c r="AH69"/>
       <c r="AJ69" s="1"/>
     </row>
-    <row r="70" spans="33:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AG70" s="1">
         <v>1.65</v>
       </c>
@@ -11322,16 +11214,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="Y1:Z2"/>
-    <mergeCell ref="AA1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="W1:X2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="J1:J2"/>
@@ -11348,24 +11230,18 @@
     <mergeCell ref="P1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="Y1:Z2"/>
+    <mergeCell ref="AA1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
   </mergeCells>
-  <conditionalFormatting sqref="R3:R64">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S64">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3:U64">
+  <conditionalFormatting sqref="R3:U64">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
